--- a/potentials/tersoff/converter_CP2k_to_Lammps.xlsx
+++ b/potentials/tersoff/converter_CP2k_to_Lammps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manab\OneDrive\デスクトップ\CP2k-v.9.1-examples\QMMM\Tersoff_potential\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5228D95-29E0-40AB-A53B-6D5DA53AFC6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F3A919-ACF7-4FB9-AB87-09C1208CE13A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1440" windowWidth="28800" windowHeight="14040" xr2:uid="{FF9DD033-10A4-49A1-A50C-94589F38F1DA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FF9DD033-10A4-49A1-A50C-94589F38F1DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Lammps" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="85">
   <si>
     <t>S</t>
     <phoneticPr fontId="1"/>
@@ -306,10 +306,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Cu</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>cos(theta0)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -347,10 +343,6 @@
   </si>
   <si>
     <t># zero contribution, put here just because of LAMMPS convention (Note: If A and B are 0, then fc(r) has no meaning in the equation.)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Si</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -859,13 +851,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC9BDE98-3808-44B7-82E0-364734D04E54}">
   <dimension ref="A1:W38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="9"/>
@@ -906,16 +899,16 @@
         <v>71</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>70</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.4">
@@ -923,13 +916,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="1">
-        <v>1830.8</v>
+        <v>1393.6</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="1">
-        <v>803.12</v>
+        <v>87.192999999999998</v>
       </c>
       <c r="G4" s="16" t="s">
         <v>50</v>
@@ -956,7 +949,7 @@
         <v>57</v>
       </c>
       <c r="O4" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P4" s="16" t="s">
         <v>58</v>
@@ -998,22 +991,22 @@
       </c>
       <c r="G5" s="1" t="str">
         <f>$B$3</f>
-        <v>Si</v>
+        <v>C</v>
       </c>
       <c r="H5" s="1" t="str">
         <f>$B$3</f>
-        <v>Si</v>
+        <v>C</v>
       </c>
       <c r="I5" s="1" t="str">
         <f>$B$3</f>
-        <v>Si</v>
+        <v>C</v>
       </c>
       <c r="J5" s="1">
         <v>1</v>
       </c>
       <c r="K5" s="1">
         <f>$B$7</f>
-        <v>1.1000000000000001E-6</v>
+        <v>1.5724E-7</v>
       </c>
       <c r="L5" s="12">
         <f>$B$15</f>
@@ -1021,34 +1014,34 @@
       </c>
       <c r="M5" s="12">
         <f>$B$10</f>
-        <v>100390</v>
+        <v>38049</v>
       </c>
       <c r="N5" s="10">
         <f>$B$11</f>
-        <v>16.216999999999999</v>
+        <v>4.3483999999999998</v>
       </c>
       <c r="O5" s="12">
         <f>$B$12</f>
-        <v>-0.59824999999999995</v>
+        <v>-0.57057999999999998</v>
       </c>
       <c r="P5" s="13">
         <f>$B$16</f>
-        <v>0.78734000000000004</v>
+        <v>0.72750999999999999</v>
       </c>
       <c r="Q5" s="10">
         <v>1</v>
       </c>
       <c r="R5" s="11">
         <f>$B$14</f>
-        <v>1.7322</v>
+        <v>2.2119</v>
       </c>
       <c r="S5" s="11">
         <f>$B$6</f>
-        <v>471.18</v>
+        <v>346.74</v>
       </c>
       <c r="T5" s="14">
         <f>$B$9</f>
-        <v>2.85</v>
+        <v>1.95</v>
       </c>
       <c r="U5" s="14">
         <f>$B$8</f>
@@ -1056,11 +1049,11 @@
       </c>
       <c r="V5" s="10">
         <f>$B$13</f>
-        <v>2.4799000000000002</v>
+        <v>3.4878999999999998</v>
       </c>
       <c r="W5" s="12">
         <f>$B$4</f>
-        <v>1830.8</v>
+        <v>1393.6</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.4">
@@ -1068,13 +1061,13 @@
         <v>9</v>
       </c>
       <c r="B6" s="1">
-        <v>471.18</v>
+        <v>346.74</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="1">
-        <v>43.25</v>
+        <v>39.520000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.4">
@@ -1082,13 +1075,13 @@
         <v>13</v>
       </c>
       <c r="B7" s="7">
-        <v>1.1000000000000001E-6</v>
+        <v>1.5724E-7</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>67</v>
@@ -1105,7 +1098,7 @@
         <v>14</v>
       </c>
       <c r="E8" s="1">
-        <v>0.255</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="G8" s="16" t="s">
         <v>50</v>
@@ -1132,7 +1125,7 @@
         <v>57</v>
       </c>
       <c r="O8" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P8" s="16" t="s">
         <v>58</v>
@@ -1164,25 +1157,25 @@
         <v>15</v>
       </c>
       <c r="B9" s="1">
-        <v>2.85</v>
+        <v>1.95</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="1">
-        <v>3.0750000000000002</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="G9" s="1" t="str">
         <f>$B$3</f>
-        <v>Si</v>
+        <v>C</v>
       </c>
       <c r="H9" s="1" t="str">
         <f>$B$3</f>
-        <v>Si</v>
+        <v>C</v>
       </c>
       <c r="I9" s="1" t="str">
         <f>$B$3</f>
-        <v>Si</v>
+        <v>C</v>
       </c>
       <c r="J9" s="1">
         <v>3</v>
@@ -1196,35 +1189,35 @@
       </c>
       <c r="M9" s="12">
         <f>$B$10</f>
-        <v>100390</v>
+        <v>38049</v>
       </c>
       <c r="N9" s="11">
         <f>$B$11</f>
-        <v>16.216999999999999</v>
+        <v>4.3483999999999998</v>
       </c>
       <c r="O9" s="12">
         <f>$B$12</f>
-        <v>-0.59824999999999995</v>
+        <v>-0.57057999999999998</v>
       </c>
       <c r="P9" s="13">
         <f>$B$16</f>
-        <v>0.78734000000000004</v>
+        <v>0.72750999999999999</v>
       </c>
       <c r="Q9" s="1">
         <f>$B$7</f>
-        <v>1.1000000000000001E-6</v>
+        <v>1.5724E-7</v>
       </c>
       <c r="R9" s="11">
         <f>$B$14</f>
-        <v>1.7322</v>
+        <v>2.2119</v>
       </c>
       <c r="S9" s="12">
         <f>$B$6</f>
-        <v>471.18</v>
+        <v>346.74</v>
       </c>
       <c r="T9" s="14">
         <f>$B$9</f>
-        <v>2.85</v>
+        <v>1.95</v>
       </c>
       <c r="U9" s="14">
         <f>$B$8</f>
@@ -1232,11 +1225,11 @@
       </c>
       <c r="V9" s="10">
         <f>$B$13</f>
-        <v>2.4799000000000002</v>
+        <v>3.4878999999999998</v>
       </c>
       <c r="W9" s="12">
         <f>$B$4</f>
-        <v>1830.8</v>
+        <v>1393.6</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.4">
@@ -1244,7 +1237,7 @@
         <v>17</v>
       </c>
       <c r="B10" s="7">
-        <v>100390</v>
+        <v>38049</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>17</v>
@@ -1258,7 +1251,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="1">
-        <v>16.216999999999999</v>
+        <v>4.3483999999999998</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>6</v>
@@ -1275,7 +1268,7 @@
         <v>16</v>
       </c>
       <c r="B12" s="1">
-        <v>-0.59824999999999995</v>
+        <v>-0.57057999999999998</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>16</v>
@@ -1308,7 +1301,7 @@
         <v>57</v>
       </c>
       <c r="O12" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P12" s="16" t="s">
         <v>58</v>
@@ -1340,25 +1333,25 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>2.4799000000000002</v>
+        <v>3.4878999999999998</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="1">
-        <v>2.83</v>
+        <v>4.0042</v>
       </c>
       <c r="G13" s="1" t="str">
         <f>$B$3</f>
-        <v>Si</v>
+        <v>C</v>
       </c>
       <c r="H13" s="1" t="str">
         <f>$B$3</f>
-        <v>Si</v>
+        <v>C</v>
       </c>
       <c r="I13" s="1" t="str">
         <f>$B$3</f>
-        <v>Si</v>
+        <v>C</v>
       </c>
       <c r="J13" s="1">
         <v>3</v>
@@ -1371,35 +1364,35 @@
       </c>
       <c r="M13" s="12">
         <f>$B$10</f>
-        <v>100390</v>
+        <v>38049</v>
       </c>
       <c r="N13" s="11">
         <f>$B$11</f>
-        <v>16.216999999999999</v>
+        <v>4.3483999999999998</v>
       </c>
       <c r="O13" s="12">
         <f>$B$12</f>
-        <v>-0.59824999999999995</v>
+        <v>-0.57057999999999998</v>
       </c>
       <c r="P13" s="13">
         <f>$B$16</f>
-        <v>0.78734000000000004</v>
+        <v>0.72750999999999999</v>
       </c>
       <c r="Q13" s="10">
         <f>$B$7</f>
-        <v>1.1000000000000001E-6</v>
+        <v>1.5724E-7</v>
       </c>
       <c r="R13" s="11">
         <f>$B$14</f>
-        <v>1.7322</v>
+        <v>2.2119</v>
       </c>
       <c r="S13" s="12">
         <f>$B$6</f>
-        <v>471.18</v>
+        <v>346.74</v>
       </c>
       <c r="T13" s="14">
         <f>$B$9</f>
-        <v>2.85</v>
+        <v>1.95</v>
       </c>
       <c r="U13" s="14">
         <f>$B$8</f>
@@ -1407,11 +1400,11 @@
       </c>
       <c r="V13" s="10">
         <f>$B$13</f>
-        <v>2.4799000000000002</v>
+        <v>3.4878999999999998</v>
       </c>
       <c r="W13" s="12">
         <f>$B$4</f>
-        <v>1830.8</v>
+        <v>1393.6</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.4">
@@ -1419,13 +1412,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>1.7322</v>
+        <v>2.2119</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E14" s="1">
-        <v>1.4119999999999999</v>
+        <v>2.0021</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.4">
@@ -1452,7 +1445,7 @@
         <v>20</v>
       </c>
       <c r="B16" s="1">
-        <v>0.78734000000000004</v>
+        <v>0.72750999999999999</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>20</v>
@@ -1461,17 +1454,17 @@
         <v>1</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S16" s="23">
         <f>$E$21</f>
-        <v>1.0223899999999999</v>
+        <v>1</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="W16" s="23">
         <f>$E$20</f>
@@ -1516,7 +1509,7 @@
         <v>57</v>
       </c>
       <c r="O17" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P17" s="16" t="s">
         <v>58</v>
@@ -1546,22 +1539,22 @@
     <row r="18" spans="1:23" x14ac:dyDescent="0.4">
       <c r="G18" s="1" t="str">
         <f>$E$3</f>
-        <v>Cu</v>
+        <v>H</v>
       </c>
       <c r="H18" s="1" t="str">
         <f>$E$3</f>
-        <v>Cu</v>
+        <v>H</v>
       </c>
       <c r="I18" s="1" t="str">
         <f>$E$3</f>
-        <v>Cu</v>
+        <v>H</v>
       </c>
       <c r="J18" s="1">
         <v>1</v>
       </c>
       <c r="K18" s="10">
         <f>$E$7</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L18" s="12">
         <f>$E$15</f>
@@ -1580,55 +1573,55 @@
         <v>0</v>
       </c>
       <c r="P18" s="13">
-        <f>$B$16</f>
-        <v>0.78734000000000004</v>
+        <f>$E$16</f>
+        <v>1</v>
       </c>
       <c r="Q18" s="10">
         <v>1</v>
       </c>
       <c r="R18" s="11">
         <f>$E$14</f>
-        <v>1.4119999999999999</v>
+        <v>2.0021</v>
       </c>
       <c r="S18" s="12">
         <f>$E$6</f>
-        <v>43.25</v>
+        <v>39.520000000000003</v>
       </c>
       <c r="T18" s="14">
         <f>$E$9</f>
-        <v>3.0750000000000002</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="U18" s="14">
         <f>$E$8</f>
-        <v>0.255</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="V18" s="10">
         <f>$E$13</f>
-        <v>2.83</v>
+        <v>4.0042</v>
       </c>
       <c r="W18" s="12">
         <f>$E$4</f>
-        <v>803.12</v>
+        <v>87.192999999999998</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.4">
       <c r="D19" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E19" s="15" t="s">
         <v>23</v>
       </c>
       <c r="G19" s="1" t="str">
         <f>$B$3</f>
-        <v>Si</v>
+        <v>C</v>
       </c>
       <c r="H19" s="1" t="str">
         <f>$E$3</f>
-        <v>Cu</v>
+        <v>H</v>
       </c>
       <c r="I19" s="1" t="str">
         <f>$E$3</f>
-        <v>Cu</v>
+        <v>H</v>
       </c>
       <c r="J19" s="1">
         <v>1</v>
@@ -1642,46 +1635,46 @@
       </c>
       <c r="M19" s="12">
         <f>$B$10</f>
-        <v>100390</v>
+        <v>38049</v>
       </c>
       <c r="N19" s="10">
         <f>$B$11</f>
-        <v>16.216999999999999</v>
+        <v>4.3483999999999998</v>
       </c>
       <c r="O19" s="12">
         <f>$B$12</f>
-        <v>-0.59824999999999995</v>
+        <v>-0.57057999999999998</v>
       </c>
       <c r="P19" s="13">
         <f>$B$16</f>
-        <v>0.78734000000000004</v>
+        <v>0.72750999999999999</v>
       </c>
       <c r="Q19" s="10">
         <v>1</v>
       </c>
       <c r="R19" s="11">
         <f>($R$5+$R$18)/2</f>
-        <v>1.5720999999999998</v>
+        <v>2.1070000000000002</v>
       </c>
       <c r="S19" s="12">
         <f>E21*SQRT($S$5*$S$18)</f>
-        <v>145.9496550303418</v>
+        <v>117.06051768209468</v>
       </c>
       <c r="T19" s="14">
         <f>$E$29</f>
-        <v>2.9600219374359411</v>
+        <v>1.3430346811521212</v>
       </c>
       <c r="U19" s="14">
         <f>$E$30</f>
-        <v>0.20067418841988038</v>
+        <v>0.10610299346682284</v>
       </c>
       <c r="V19" s="10">
         <f>($V$5+$V$18)/2</f>
-        <v>2.6549500000000004</v>
+        <v>3.7460499999999999</v>
       </c>
       <c r="W19" s="12">
         <f>$E$20*SQRT($W$5*$W$18)</f>
-        <v>1212.5807585476523</v>
+        <v>348.585950376661</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.4">
@@ -1693,15 +1686,15 @@
       </c>
       <c r="G20" s="1" t="str">
         <f>$E$3</f>
-        <v>Cu</v>
+        <v>H</v>
       </c>
       <c r="H20" s="1" t="str">
         <f>$B$3</f>
-        <v>Si</v>
+        <v>C</v>
       </c>
       <c r="I20" s="1" t="str">
         <f>$B$3</f>
-        <v>Si</v>
+        <v>C</v>
       </c>
       <c r="J20" s="1">
         <v>1</v>
@@ -1726,43 +1719,43 @@
         <v>0</v>
       </c>
       <c r="P20" s="13">
-        <f>$B$16</f>
-        <v>0.78734000000000004</v>
+        <f>$E$16</f>
+        <v>1</v>
       </c>
       <c r="Q20" s="10">
         <v>1</v>
       </c>
       <c r="R20" s="11">
         <f>($R$5+$R$18)/2</f>
-        <v>1.5720999999999998</v>
+        <v>2.1070000000000002</v>
       </c>
       <c r="S20" s="12">
         <f>E21*SQRT($S$5*$S$18)</f>
-        <v>145.9496550303418</v>
+        <v>117.06051768209468</v>
       </c>
       <c r="T20" s="14">
         <f>$E$29</f>
-        <v>2.9600219374359411</v>
+        <v>1.3430346811521212</v>
       </c>
       <c r="U20" s="14">
         <f>$E$30</f>
-        <v>0.20067418841988038</v>
+        <v>0.10610299346682284</v>
       </c>
       <c r="V20" s="10">
         <f>($V$5+$V$18)/2</f>
-        <v>2.6549500000000004</v>
+        <v>3.7460499999999999</v>
       </c>
       <c r="W20" s="12">
         <f>$E$20*SQRT($W$5*$W$18)</f>
-        <v>1212.5807585476523</v>
+        <v>348.585950376661</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.4">
       <c r="D21" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E21" s="11">
-        <v>1.0223899999999999</v>
+        <v>1</v>
       </c>
       <c r="S21" s="22"/>
       <c r="W21" s="22"/>
@@ -1772,14 +1765,14 @@
         <v>67</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S22" s="23">
         <f>$E$21</f>
-        <v>1.0223899999999999</v>
+        <v>1</v>
       </c>
       <c r="V22" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="W22" s="23">
         <f>$E$20</f>
@@ -1788,18 +1781,18 @@
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A23" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B23" s="1">
         <f>$B$9-$B$8</f>
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E23" s="1">
         <f>$E$9-$E$8</f>
-        <v>2.8200000000000003</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="G23" s="16" t="s">
         <v>50</v>
@@ -1826,7 +1819,7 @@
         <v>57</v>
       </c>
       <c r="O23" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P23" s="16" t="s">
         <v>58</v>
@@ -1859,26 +1852,26 @@
       </c>
       <c r="B24" s="1">
         <f>$B$9+$B$8</f>
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E24" s="1">
         <f>$E$9+$E$8</f>
-        <v>3.33</v>
+        <v>1</v>
       </c>
       <c r="G24" s="1" t="str">
         <f>$E$3</f>
-        <v>Cu</v>
+        <v>H</v>
       </c>
       <c r="H24" s="1" t="str">
         <f>$E$3</f>
-        <v>Cu</v>
+        <v>H</v>
       </c>
       <c r="I24" s="1" t="str">
         <f>$E$3</f>
-        <v>Cu</v>
+        <v>H</v>
       </c>
       <c r="J24" s="1">
         <v>3</v>
@@ -1903,50 +1896,50 @@
         <v>0</v>
       </c>
       <c r="P24" s="13">
-        <f>$B$16</f>
-        <v>0.78734000000000004</v>
+        <f>$E$16</f>
+        <v>1</v>
       </c>
       <c r="Q24" s="10">
         <f>$E$7</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R24" s="11">
         <f>$E$14</f>
-        <v>1.4119999999999999</v>
+        <v>2.0021</v>
       </c>
       <c r="S24" s="12">
         <f>$E$6</f>
-        <v>43.25</v>
+        <v>39.520000000000003</v>
       </c>
       <c r="T24" s="14">
         <f>$E$9</f>
-        <v>3.0750000000000002</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="U24" s="14">
         <f>$E$8</f>
-        <v>0.255</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="V24" s="10">
         <f>$E$13</f>
-        <v>2.83</v>
+        <v>4.0042</v>
       </c>
       <c r="W24" s="12">
         <f>$E$4</f>
-        <v>803.12</v>
+        <v>87.192999999999998</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.4">
       <c r="G25" s="1" t="str">
         <f>$B$3</f>
-        <v>Si</v>
+        <v>C</v>
       </c>
       <c r="H25" s="1" t="str">
         <f>$E$3</f>
-        <v>Cu</v>
+        <v>H</v>
       </c>
       <c r="I25" s="1" t="str">
         <f>$E$3</f>
-        <v>Cu</v>
+        <v>H</v>
       </c>
       <c r="J25" s="1">
         <v>3</v>
@@ -1960,64 +1953,64 @@
       </c>
       <c r="M25" s="12">
         <f>$B$10</f>
-        <v>100390</v>
+        <v>38049</v>
       </c>
       <c r="N25" s="11">
         <f>$B$11</f>
-        <v>16.216999999999999</v>
+        <v>4.3483999999999998</v>
       </c>
       <c r="O25" s="12">
         <f>$B$12</f>
-        <v>-0.59824999999999995</v>
+        <v>-0.57057999999999998</v>
       </c>
       <c r="P25" s="13">
         <f>$B$16</f>
-        <v>0.78734000000000004</v>
-      </c>
-      <c r="Q25" s="1">
+        <v>0.72750999999999999</v>
+      </c>
+      <c r="Q25" s="7">
         <f>$B$7</f>
-        <v>1.1000000000000001E-6</v>
+        <v>1.5724E-7</v>
       </c>
       <c r="R25" s="11">
         <f>($R$9+$R$24)/2</f>
-        <v>1.5720999999999998</v>
+        <v>2.1070000000000002</v>
       </c>
       <c r="S25" s="12">
         <f>E21*SQRT($S$9*$S$24)</f>
-        <v>145.9496550303418</v>
+        <v>117.06051768209468</v>
       </c>
       <c r="T25" s="14">
         <f>$E$29</f>
-        <v>2.9600219374359411</v>
+        <v>1.3430346811521212</v>
       </c>
       <c r="U25" s="14">
         <f>$E$30</f>
-        <v>0.20067418841988038</v>
+        <v>0.10610299346682284</v>
       </c>
       <c r="V25" s="10">
         <f>($V$9+$V$24)/2</f>
-        <v>2.6549500000000004</v>
+        <v>3.7460499999999999</v>
       </c>
       <c r="W25" s="12">
         <f>$E$20*SQRT($W$9*$W$24)</f>
-        <v>1212.5807585476523</v>
+        <v>348.585950376661</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.4">
       <c r="D26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G26" s="1" t="str">
         <f>$E$3</f>
-        <v>Cu</v>
+        <v>H</v>
       </c>
       <c r="H26" s="1" t="str">
         <f>$B$3</f>
-        <v>Si</v>
+        <v>C</v>
       </c>
       <c r="I26" s="1" t="str">
         <f>$B$3</f>
-        <v>Si</v>
+        <v>C</v>
       </c>
       <c r="J26" s="1">
         <v>3</v>
@@ -2042,45 +2035,45 @@
         <v>0</v>
       </c>
       <c r="P26" s="13">
-        <f>$B$16</f>
-        <v>0.78734000000000004</v>
+        <f>$E$16</f>
+        <v>1</v>
       </c>
       <c r="Q26" s="10">
         <f>$E$7</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R26" s="11">
         <f>($R$9+$R$24)/2</f>
-        <v>1.5720999999999998</v>
+        <v>2.1070000000000002</v>
       </c>
       <c r="S26" s="12">
         <f>E21*SQRT($S$9*$S$24)</f>
-        <v>145.9496550303418</v>
+        <v>117.06051768209468</v>
       </c>
       <c r="T26" s="14">
         <f>$E$29</f>
-        <v>2.9600219374359411</v>
+        <v>1.3430346811521212</v>
       </c>
       <c r="U26" s="14">
         <f>$E$30</f>
-        <v>0.20067418841988038</v>
+        <v>0.10610299346682284</v>
       </c>
       <c r="V26" s="10">
         <f>($V$9+$V$24)/2</f>
-        <v>2.6549500000000004</v>
+        <v>3.7460499999999999</v>
       </c>
       <c r="W26" s="12">
         <f>$E$20*SQRT($W$9*$W$24)</f>
-        <v>1212.5807585476523</v>
+        <v>348.585950376661</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.4">
       <c r="D27" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E27" s="13">
         <f>SQRT($B$23*$E$23)</f>
-        <v>2.7593477490160607</v>
+        <v>1.2369316876852983</v>
       </c>
       <c r="S27" s="22"/>
       <c r="W27" s="22"/>
@@ -2091,20 +2084,20 @@
       </c>
       <c r="E28" s="13">
         <f>SQRT(B24*E24)</f>
-        <v>3.1606961258558215</v>
+        <v>1.4491376746189439</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S28" s="23">
         <f>$E$21</f>
-        <v>1.0223899999999999</v>
+        <v>1</v>
       </c>
       <c r="V28" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="W28" s="23">
         <f>$E$20</f>
@@ -2113,11 +2106,11 @@
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.4">
       <c r="D29" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E29" s="13">
         <f>(E27+E28)/2</f>
-        <v>2.9600219374359411</v>
+        <v>1.3430346811521212</v>
       </c>
       <c r="G29" s="16" t="s">
         <v>50</v>
@@ -2144,7 +2137,7 @@
         <v>57</v>
       </c>
       <c r="O29" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P29" s="16" t="s">
         <v>58</v>
@@ -2173,23 +2166,23 @@
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.4">
       <c r="D30" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E30" s="13">
         <f>(E28-E27)/2</f>
-        <v>0.20067418841988038</v>
+        <v>0.10610299346682284</v>
       </c>
       <c r="G30" s="1" t="str">
         <f>$E$3</f>
-        <v>Cu</v>
+        <v>H</v>
       </c>
       <c r="H30" s="1" t="str">
         <f>$E$3</f>
-        <v>Cu</v>
+        <v>H</v>
       </c>
       <c r="I30" s="1" t="str">
         <f>$E$3</f>
-        <v>Cu</v>
+        <v>H</v>
       </c>
       <c r="J30" s="1">
         <v>1</v>
@@ -2214,50 +2207,50 @@
         <v>0</v>
       </c>
       <c r="P30" s="13">
-        <f>$B$16</f>
-        <v>0.78734000000000004</v>
+        <f>$E$16</f>
+        <v>1</v>
       </c>
       <c r="Q30" s="10">
         <f>$E$7</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R30" s="11">
         <f>$E$14</f>
-        <v>1.4119999999999999</v>
+        <v>2.0021</v>
       </c>
       <c r="S30" s="12">
         <f>$E$6</f>
-        <v>43.25</v>
+        <v>39.520000000000003</v>
       </c>
       <c r="T30" s="14">
         <f>$E$9</f>
-        <v>3.0750000000000002</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="U30" s="14">
         <f>$E$8</f>
-        <v>0.255</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="V30" s="10">
         <f>$E$13</f>
-        <v>2.83</v>
+        <v>4.0042</v>
       </c>
       <c r="W30" s="12">
         <f>$E$4</f>
-        <v>803.12</v>
+        <v>87.192999999999998</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.4">
       <c r="G31" s="1" t="str">
         <f>$B$3</f>
-        <v>Si</v>
+        <v>C</v>
       </c>
       <c r="H31" s="1" t="str">
         <f>$E$3</f>
-        <v>Cu</v>
+        <v>H</v>
       </c>
       <c r="I31" s="1" t="str">
         <f>$E$3</f>
-        <v>Cu</v>
+        <v>H</v>
       </c>
       <c r="J31" s="1">
         <v>1</v>
@@ -2271,61 +2264,61 @@
       </c>
       <c r="M31" s="12">
         <f>$B$10</f>
-        <v>100390</v>
+        <v>38049</v>
       </c>
       <c r="N31" s="11">
         <f>$B$11</f>
-        <v>16.216999999999999</v>
+        <v>4.3483999999999998</v>
       </c>
       <c r="O31" s="12">
         <f>$B$12</f>
-        <v>-0.59824999999999995</v>
+        <v>-0.57057999999999998</v>
       </c>
       <c r="P31" s="13">
         <f>$B$16</f>
-        <v>0.78734000000000004</v>
+        <v>0.72750999999999999</v>
       </c>
       <c r="Q31" s="10">
         <f>$B$7</f>
-        <v>1.1000000000000001E-6</v>
+        <v>1.5724E-7</v>
       </c>
       <c r="R31" s="11">
         <f>($R$13+$R$30)/2</f>
-        <v>1.5720999999999998</v>
+        <v>2.1070000000000002</v>
       </c>
       <c r="S31" s="12">
         <f>E21*SQRT($S$13*$S$30)</f>
-        <v>145.9496550303418</v>
+        <v>117.06051768209468</v>
       </c>
       <c r="T31" s="14">
         <f>$E$29</f>
-        <v>2.9600219374359411</v>
+        <v>1.3430346811521212</v>
       </c>
       <c r="U31" s="14">
         <f>$E$30</f>
-        <v>0.20067418841988038</v>
+        <v>0.10610299346682284</v>
       </c>
       <c r="V31" s="10">
         <f>($V$13+$V$30)/2</f>
-        <v>2.6549500000000004</v>
+        <v>3.7460499999999999</v>
       </c>
       <c r="W31" s="12">
         <f>$E$20*SQRT($W$13*$W$30)</f>
-        <v>1212.5807585476523</v>
+        <v>348.585950376661</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.4">
       <c r="G32" s="1" t="str">
         <f>$E$3</f>
-        <v>Cu</v>
+        <v>H</v>
       </c>
       <c r="H32" s="1" t="str">
         <f>$B$3</f>
-        <v>Si</v>
+        <v>C</v>
       </c>
       <c r="I32" s="1" t="str">
         <f>$B$3</f>
-        <v>Si</v>
+        <v>C</v>
       </c>
       <c r="J32" s="1">
         <v>1</v>
@@ -2350,55 +2343,55 @@
         <v>0</v>
       </c>
       <c r="P32" s="13">
-        <f>$B$16</f>
-        <v>0.78734000000000004</v>
+        <f>$E$16</f>
+        <v>1</v>
       </c>
       <c r="Q32" s="10">
         <f>$E$7</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R32" s="11">
         <f>($R$13+$R$30)/2</f>
-        <v>1.5720999999999998</v>
+        <v>2.1070000000000002</v>
       </c>
       <c r="S32" s="12">
         <f>E21*SQRT($S$13*$S$30)</f>
-        <v>145.9496550303418</v>
+        <v>117.06051768209468</v>
       </c>
       <c r="T32" s="14">
         <f>$E$29</f>
-        <v>2.9600219374359411</v>
+        <v>1.3430346811521212</v>
       </c>
       <c r="U32" s="14">
         <f>$E$30</f>
-        <v>0.20067418841988038</v>
+        <v>0.10610299346682284</v>
       </c>
       <c r="V32" s="10">
         <f>($V$13+$V$30)/2</f>
-        <v>2.6549500000000004</v>
+        <v>3.7460499999999999</v>
       </c>
       <c r="W32" s="12">
         <f>$E$20*SQRT($W$13*$W$30)</f>
-        <v>1212.5807585476523</v>
+        <v>348.585950376661</v>
       </c>
     </row>
     <row r="34" spans="7:23" x14ac:dyDescent="0.4">
       <c r="G34" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="7:23" x14ac:dyDescent="0.4">
       <c r="G35" s="9" t="str">
         <f>$B$3</f>
-        <v>Si</v>
+        <v>C</v>
       </c>
       <c r="H35" t="str">
         <f>$E$3</f>
-        <v>Cu</v>
+        <v>H</v>
       </c>
       <c r="I35" t="str">
         <f>$B$3</f>
-        <v>Si</v>
+        <v>C</v>
       </c>
       <c r="J35">
         <v>1</v>
@@ -2432,11 +2425,11 @@
       </c>
       <c r="T35" s="21">
         <f>$E$29</f>
-        <v>2.9600219374359411</v>
+        <v>1.3430346811521212</v>
       </c>
       <c r="U35" s="21">
         <f>$E$30</f>
-        <v>0.20067418841988038</v>
+        <v>0.10610299346682284</v>
       </c>
       <c r="V35" s="20">
         <v>0</v>
@@ -2448,15 +2441,15 @@
     <row r="36" spans="7:23" x14ac:dyDescent="0.4">
       <c r="G36" s="9" t="str">
         <f>$B$3</f>
-        <v>Si</v>
+        <v>C</v>
       </c>
       <c r="H36" t="str">
         <f>$B$3</f>
-        <v>Si</v>
+        <v>C</v>
       </c>
       <c r="I36" t="str">
         <f>$E$3</f>
-        <v>Cu</v>
+        <v>H</v>
       </c>
       <c r="J36">
         <v>1</v>
@@ -2490,11 +2483,11 @@
       </c>
       <c r="T36" s="21">
         <f>$E$29</f>
-        <v>2.9600219374359411</v>
+        <v>1.3430346811521212</v>
       </c>
       <c r="U36" s="21">
         <f>$E$30</f>
-        <v>0.20067418841988038</v>
+        <v>0.10610299346682284</v>
       </c>
       <c r="V36" s="20">
         <v>0</v>
@@ -2506,15 +2499,15 @@
     <row r="37" spans="7:23" x14ac:dyDescent="0.4">
       <c r="G37" s="9" t="str">
         <f>$E$3</f>
-        <v>Cu</v>
+        <v>H</v>
       </c>
       <c r="H37" t="str">
         <f>$B$3</f>
-        <v>Si</v>
+        <v>C</v>
       </c>
       <c r="I37" t="str">
         <f>$E$3</f>
-        <v>Cu</v>
+        <v>H</v>
       </c>
       <c r="J37">
         <v>1</v>
@@ -2548,11 +2541,11 @@
       </c>
       <c r="T37" s="21">
         <f>$E$29</f>
-        <v>2.9600219374359411</v>
+        <v>1.3430346811521212</v>
       </c>
       <c r="U37" s="21">
         <f>$E$30</f>
-        <v>0.20067418841988038</v>
+        <v>0.10610299346682284</v>
       </c>
       <c r="V37" s="20">
         <v>0</v>
@@ -2564,15 +2557,15 @@
     <row r="38" spans="7:23" x14ac:dyDescent="0.4">
       <c r="G38" s="9" t="str">
         <f>$E$3</f>
-        <v>Cu</v>
+        <v>H</v>
       </c>
       <c r="H38" t="str">
         <f>$E$3</f>
-        <v>Cu</v>
+        <v>H</v>
       </c>
       <c r="I38" t="str">
         <f>$B$3</f>
-        <v>Si</v>
+        <v>C</v>
       </c>
       <c r="J38">
         <v>1</v>
@@ -2606,11 +2599,11 @@
       </c>
       <c r="T38" s="21">
         <f>$E$29</f>
-        <v>2.9600219374359411</v>
+        <v>1.3430346811521212</v>
       </c>
       <c r="U38" s="21">
         <f>$E$30</f>
-        <v>0.20067418841988038</v>
+        <v>0.10610299346682284</v>
       </c>
       <c r="V38" s="20">
         <v>0</v>

--- a/potentials/tersoff/converter_CP2k_to_Lammps.xlsx
+++ b/potentials/tersoff/converter_CP2k_to_Lammps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manab\OneDrive\デスクトップ\CP2k-v.9.1-examples\QMMM\Tersoff_potential\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F3A919-ACF7-4FB9-AB87-09C1208CE13A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661FDEBA-5D02-43A0-84DE-15DF7FCEA4BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FF9DD033-10A4-49A1-A50C-94589F38F1DA}"/>
+    <workbookView xWindow="3510" yWindow="1515" windowWidth="28800" windowHeight="13200" xr2:uid="{FF9DD033-10A4-49A1-A50C-94589F38F1DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Lammps" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="87">
   <si>
     <t>S</t>
     <phoneticPr fontId="1"/>
@@ -348,6 +348,13 @@
   <si>
     <t>Output Lammps (Albe: m=1 and beta = 1 case) format</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ga</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.3586e−1</t>
   </si>
 </sst>
 </file>
@@ -851,8 +858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC9BDE98-3808-44B7-82E0-364734D04E54}">
   <dimension ref="A1:W38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="P31" sqref="P31"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -899,13 +906,13 @@
         <v>71</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>70</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>84</v>
@@ -915,14 +922,14 @@
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1">
-        <v>1393.6</v>
+      <c r="B4" s="7">
+        <v>2839.82</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="1">
-        <v>87.192999999999998</v>
+      <c r="E4" s="7">
+        <v>11000</v>
       </c>
       <c r="G4" s="16" t="s">
         <v>50</v>
@@ -991,22 +998,22 @@
       </c>
       <c r="G5" s="1" t="str">
         <f>$B$3</f>
-        <v>C</v>
+        <v>Ga</v>
       </c>
       <c r="H5" s="1" t="str">
         <f>$B$3</f>
-        <v>C</v>
+        <v>Ga</v>
       </c>
       <c r="I5" s="1" t="str">
         <f>$B$3</f>
-        <v>C</v>
+        <v>Ga</v>
       </c>
       <c r="J5" s="1">
         <v>1</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="1" t="str">
         <f>$B$7</f>
-        <v>1.5724E-7</v>
+        <v>2.3586e−1</v>
       </c>
       <c r="L5" s="12">
         <f>$B$15</f>
@@ -1014,74 +1021,74 @@
       </c>
       <c r="M5" s="12">
         <f>$B$10</f>
-        <v>38049</v>
+        <v>7.6298000000000005E-2</v>
       </c>
       <c r="N5" s="10">
         <f>$B$11</f>
-        <v>4.3483999999999998</v>
+        <v>19.795999999999999</v>
       </c>
       <c r="O5" s="12">
         <f>$B$12</f>
-        <v>-0.57057999999999998</v>
+        <v>7.1459000000000001</v>
       </c>
       <c r="P5" s="13">
         <f>$B$16</f>
-        <v>0.72750999999999999</v>
+        <v>3.4729000000000001</v>
       </c>
       <c r="Q5" s="10">
         <v>1</v>
       </c>
       <c r="R5" s="11">
         <f>$B$14</f>
-        <v>2.2119</v>
+        <v>1.7154</v>
       </c>
       <c r="S5" s="11">
         <f>$B$6</f>
-        <v>346.74</v>
+        <v>114.786</v>
       </c>
       <c r="T5" s="14">
         <f>$B$9</f>
-        <v>1.95</v>
+        <v>2.9</v>
       </c>
       <c r="U5" s="14">
         <f>$B$8</f>
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="V5" s="10">
         <f>$B$13</f>
-        <v>3.4878999999999998</v>
+        <v>3.2833999999999999</v>
       </c>
       <c r="W5" s="12">
         <f>$B$4</f>
-        <v>1393.6</v>
+        <v>2839.82</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1">
-        <v>346.74</v>
+      <c r="B6" s="7">
+        <v>114.786</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="1">
-        <v>39.520000000000003</v>
+      <c r="E6" s="7">
+        <v>219.45</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="7">
-        <v>1.5724E-7</v>
+      <c r="B7" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="1">
-        <v>4</v>
+      <c r="E7" s="7">
+        <v>0.10562000000000001</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>67</v>
@@ -1092,13 +1099,13 @@
         <v>14</v>
       </c>
       <c r="B8" s="1">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="1">
-        <v>7.4999999999999997E-2</v>
+        <v>0.15</v>
       </c>
       <c r="G8" s="16" t="s">
         <v>50</v>
@@ -1157,25 +1164,25 @@
         <v>15</v>
       </c>
       <c r="B9" s="1">
-        <v>1.95</v>
+        <v>2.9</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="1">
-        <v>0.92500000000000004</v>
+        <v>2.15</v>
       </c>
       <c r="G9" s="1" t="str">
         <f>$B$3</f>
-        <v>C</v>
+        <v>Ga</v>
       </c>
       <c r="H9" s="1" t="str">
         <f>$B$3</f>
-        <v>C</v>
+        <v>Ga</v>
       </c>
       <c r="I9" s="1" t="str">
         <f>$B$3</f>
-        <v>C</v>
+        <v>Ga</v>
       </c>
       <c r="J9" s="1">
         <v>3</v>
@@ -1189,47 +1196,47 @@
       </c>
       <c r="M9" s="12">
         <f>$B$10</f>
-        <v>38049</v>
+        <v>7.6298000000000005E-2</v>
       </c>
       <c r="N9" s="11">
         <f>$B$11</f>
-        <v>4.3483999999999998</v>
+        <v>19.795999999999999</v>
       </c>
       <c r="O9" s="12">
         <f>$B$12</f>
-        <v>-0.57057999999999998</v>
+        <v>7.1459000000000001</v>
       </c>
       <c r="P9" s="13">
         <f>$B$16</f>
-        <v>0.72750999999999999</v>
-      </c>
-      <c r="Q9" s="1">
+        <v>3.4729000000000001</v>
+      </c>
+      <c r="Q9" s="1" t="str">
         <f>$B$7</f>
-        <v>1.5724E-7</v>
+        <v>2.3586e−1</v>
       </c>
       <c r="R9" s="11">
         <f>$B$14</f>
-        <v>2.2119</v>
+        <v>1.7154</v>
       </c>
       <c r="S9" s="12">
         <f>$B$6</f>
-        <v>346.74</v>
+        <v>114.786</v>
       </c>
       <c r="T9" s="14">
         <f>$B$9</f>
-        <v>1.95</v>
+        <v>2.9</v>
       </c>
       <c r="U9" s="14">
         <f>$B$8</f>
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="V9" s="10">
         <f>$B$13</f>
-        <v>3.4878999999999998</v>
+        <v>3.2833999999999999</v>
       </c>
       <c r="W9" s="12">
         <f>$B$4</f>
-        <v>1393.6</v>
+        <v>2839.82</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.4">
@@ -1237,27 +1244,27 @@
         <v>17</v>
       </c>
       <c r="B10" s="7">
-        <v>38049</v>
+        <v>7.6298000000000005E-2</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="1">
-        <v>0</v>
+      <c r="E10" s="7">
+        <v>79934</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="1">
-        <v>4.3483999999999998</v>
+      <c r="B11" s="7">
+        <v>19.795999999999999</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="1">
-        <v>1</v>
+      <c r="E11" s="7">
+        <v>134.32</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>68</v>
@@ -1268,13 +1275,13 @@
         <v>16</v>
       </c>
       <c r="B12" s="1">
-        <v>-0.57057999999999998</v>
+        <v>7.1459000000000001</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="1">
-        <v>0</v>
+        <v>-0.99729999999999996</v>
       </c>
       <c r="G12" s="16" t="s">
         <v>50</v>
@@ -1333,25 +1340,25 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>3.4878999999999998</v>
+        <v>3.2833999999999999</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="1">
-        <v>4.0042</v>
+        <v>5.7708000000000004</v>
       </c>
       <c r="G13" s="1" t="str">
         <f>$B$3</f>
-        <v>C</v>
+        <v>Ga</v>
       </c>
       <c r="H13" s="1" t="str">
         <f>$B$3</f>
-        <v>C</v>
+        <v>Ga</v>
       </c>
       <c r="I13" s="1" t="str">
         <f>$B$3</f>
-        <v>C</v>
+        <v>Ga</v>
       </c>
       <c r="J13" s="1">
         <v>3</v>
@@ -1364,47 +1371,47 @@
       </c>
       <c r="M13" s="12">
         <f>$B$10</f>
-        <v>38049</v>
+        <v>7.6298000000000005E-2</v>
       </c>
       <c r="N13" s="11">
         <f>$B$11</f>
-        <v>4.3483999999999998</v>
+        <v>19.795999999999999</v>
       </c>
       <c r="O13" s="12">
         <f>$B$12</f>
-        <v>-0.57057999999999998</v>
+        <v>7.1459000000000001</v>
       </c>
       <c r="P13" s="13">
         <f>$B$16</f>
-        <v>0.72750999999999999</v>
-      </c>
-      <c r="Q13" s="10">
+        <v>3.4729000000000001</v>
+      </c>
+      <c r="Q13" s="10" t="str">
         <f>$B$7</f>
-        <v>1.5724E-7</v>
+        <v>2.3586e−1</v>
       </c>
       <c r="R13" s="11">
         <f>$B$14</f>
-        <v>2.2119</v>
+        <v>1.7154</v>
       </c>
       <c r="S13" s="12">
         <f>$B$6</f>
-        <v>346.74</v>
+        <v>114.786</v>
       </c>
       <c r="T13" s="14">
         <f>$B$9</f>
-        <v>1.95</v>
+        <v>2.9</v>
       </c>
       <c r="U13" s="14">
         <f>$B$8</f>
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="V13" s="10">
         <f>$B$13</f>
-        <v>3.4878999999999998</v>
+        <v>3.2833999999999999</v>
       </c>
       <c r="W13" s="12">
         <f>$B$4</f>
-        <v>1393.6</v>
+        <v>2839.82</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.4">
@@ -1412,13 +1419,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>2.2119</v>
+        <v>1.7154</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E14" s="1">
-        <v>2.0021</v>
+        <v>2.5114999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.4">
@@ -1445,13 +1452,13 @@
         <v>20</v>
       </c>
       <c r="B16" s="1">
-        <v>0.72750999999999999</v>
+        <v>3.4729000000000001</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>12.4498</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>84</v>
@@ -1539,22 +1546,22 @@
     <row r="18" spans="1:23" x14ac:dyDescent="0.4">
       <c r="G18" s="1" t="str">
         <f>$E$3</f>
-        <v>H</v>
+        <v>N</v>
       </c>
       <c r="H18" s="1" t="str">
         <f>$E$3</f>
-        <v>H</v>
+        <v>N</v>
       </c>
       <c r="I18" s="1" t="str">
         <f>$E$3</f>
-        <v>H</v>
+        <v>N</v>
       </c>
       <c r="J18" s="1">
         <v>1</v>
       </c>
       <c r="K18" s="10">
         <f>$E$7</f>
-        <v>4</v>
+        <v>0.10562000000000001</v>
       </c>
       <c r="L18" s="12">
         <f>$E$15</f>
@@ -1562,46 +1569,46 @@
       </c>
       <c r="M18" s="11">
         <f>$E$10</f>
-        <v>0</v>
+        <v>79934</v>
       </c>
       <c r="N18" s="11">
         <f>$E$11</f>
-        <v>1</v>
+        <v>134.32</v>
       </c>
       <c r="O18" s="12">
         <f>$E$12</f>
-        <v>0</v>
+        <v>-0.99729999999999996</v>
       </c>
       <c r="P18" s="13">
         <f>$E$16</f>
-        <v>1</v>
+        <v>12.4498</v>
       </c>
       <c r="Q18" s="10">
         <v>1</v>
       </c>
       <c r="R18" s="11">
         <f>$E$14</f>
-        <v>2.0021</v>
+        <v>2.5114999999999998</v>
       </c>
       <c r="S18" s="12">
         <f>$E$6</f>
-        <v>39.520000000000003</v>
+        <v>219.45</v>
       </c>
       <c r="T18" s="14">
         <f>$E$9</f>
-        <v>0.92500000000000004</v>
+        <v>2.15</v>
       </c>
       <c r="U18" s="14">
         <f>$E$8</f>
-        <v>7.4999999999999997E-2</v>
+        <v>0.15</v>
       </c>
       <c r="V18" s="10">
         <f>$E$13</f>
-        <v>4.0042</v>
+        <v>5.7708000000000004</v>
       </c>
       <c r="W18" s="12">
         <f>$E$4</f>
-        <v>87.192999999999998</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.4">
@@ -1613,15 +1620,15 @@
       </c>
       <c r="G19" s="1" t="str">
         <f>$B$3</f>
-        <v>C</v>
+        <v>Ga</v>
       </c>
       <c r="H19" s="1" t="str">
         <f>$E$3</f>
-        <v>H</v>
+        <v>N</v>
       </c>
       <c r="I19" s="1" t="str">
         <f>$E$3</f>
-        <v>H</v>
+        <v>N</v>
       </c>
       <c r="J19" s="1">
         <v>1</v>
@@ -1635,46 +1642,46 @@
       </c>
       <c r="M19" s="12">
         <f>$B$10</f>
-        <v>38049</v>
+        <v>7.6298000000000005E-2</v>
       </c>
       <c r="N19" s="10">
         <f>$B$11</f>
-        <v>4.3483999999999998</v>
+        <v>19.795999999999999</v>
       </c>
       <c r="O19" s="12">
         <f>$B$12</f>
-        <v>-0.57057999999999998</v>
+        <v>7.1459000000000001</v>
       </c>
       <c r="P19" s="13">
         <f>$B$16</f>
-        <v>0.72750999999999999</v>
+        <v>3.4729000000000001</v>
       </c>
       <c r="Q19" s="10">
         <v>1</v>
       </c>
       <c r="R19" s="11">
         <f>($R$5+$R$18)/2</f>
-        <v>2.1070000000000002</v>
+        <v>2.1134499999999998</v>
       </c>
       <c r="S19" s="12">
         <f>E21*SQRT($S$5*$S$18)</f>
-        <v>117.06051768209468</v>
+        <v>158.71290968286104</v>
       </c>
       <c r="T19" s="14">
         <f>$E$29</f>
-        <v>1.3430346811521212</v>
+        <v>2.4966085102762929</v>
       </c>
       <c r="U19" s="14">
         <f>$E$30</f>
-        <v>0.10610299346682284</v>
+        <v>0.13017659703644657</v>
       </c>
       <c r="V19" s="10">
         <f>($V$5+$V$18)/2</f>
-        <v>3.7460499999999999</v>
+        <v>4.5270999999999999</v>
       </c>
       <c r="W19" s="12">
         <f>$E$20*SQRT($W$5*$W$18)</f>
-        <v>348.585950376661</v>
+        <v>5589.0983172601282</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.4">
@@ -1686,15 +1693,15 @@
       </c>
       <c r="G20" s="1" t="str">
         <f>$E$3</f>
-        <v>H</v>
+        <v>N</v>
       </c>
       <c r="H20" s="1" t="str">
         <f>$B$3</f>
-        <v>C</v>
+        <v>Ga</v>
       </c>
       <c r="I20" s="1" t="str">
         <f>$B$3</f>
-        <v>C</v>
+        <v>Ga</v>
       </c>
       <c r="J20" s="1">
         <v>1</v>
@@ -1708,46 +1715,46 @@
       </c>
       <c r="M20" s="11">
         <f>$E$10</f>
-        <v>0</v>
+        <v>79934</v>
       </c>
       <c r="N20" s="11">
         <f>$E$11</f>
-        <v>1</v>
+        <v>134.32</v>
       </c>
       <c r="O20" s="12">
         <f>$E$12</f>
-        <v>0</v>
+        <v>-0.99729999999999996</v>
       </c>
       <c r="P20" s="13">
         <f>$E$16</f>
-        <v>1</v>
+        <v>12.4498</v>
       </c>
       <c r="Q20" s="10">
         <v>1</v>
       </c>
       <c r="R20" s="11">
         <f>($R$5+$R$18)/2</f>
-        <v>2.1070000000000002</v>
+        <v>2.1134499999999998</v>
       </c>
       <c r="S20" s="12">
         <f>E21*SQRT($S$5*$S$18)</f>
-        <v>117.06051768209468</v>
+        <v>158.71290968286104</v>
       </c>
       <c r="T20" s="14">
         <f>$E$29</f>
-        <v>1.3430346811521212</v>
+        <v>2.4966085102762929</v>
       </c>
       <c r="U20" s="14">
         <f>$E$30</f>
-        <v>0.10610299346682284</v>
+        <v>0.13017659703644657</v>
       </c>
       <c r="V20" s="10">
         <f>($V$5+$V$18)/2</f>
-        <v>3.7460499999999999</v>
+        <v>4.5270999999999999</v>
       </c>
       <c r="W20" s="12">
         <f>$E$20*SQRT($W$5*$W$18)</f>
-        <v>348.585950376661</v>
+        <v>5589.0983172601282</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.4">
@@ -1785,14 +1792,14 @@
       </c>
       <c r="B23" s="1">
         <f>$B$9-$B$8</f>
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>76</v>
       </c>
       <c r="E23" s="1">
         <f>$E$9-$E$8</f>
-        <v>0.85000000000000009</v>
+        <v>2</v>
       </c>
       <c r="G23" s="16" t="s">
         <v>50</v>
@@ -1852,26 +1859,26 @@
       </c>
       <c r="B24" s="1">
         <f>$B$9+$B$8</f>
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E24" s="1">
         <f>$E$9+$E$8</f>
-        <v>1</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G24" s="1" t="str">
         <f>$E$3</f>
-        <v>H</v>
+        <v>N</v>
       </c>
       <c r="H24" s="1" t="str">
         <f>$E$3</f>
-        <v>H</v>
+        <v>N</v>
       </c>
       <c r="I24" s="1" t="str">
         <f>$E$3</f>
-        <v>H</v>
+        <v>N</v>
       </c>
       <c r="J24" s="1">
         <v>3</v>
@@ -1885,61 +1892,61 @@
       </c>
       <c r="M24" s="11">
         <f>$E$10</f>
-        <v>0</v>
+        <v>79934</v>
       </c>
       <c r="N24" s="11">
         <f>$E$11</f>
-        <v>1</v>
+        <v>134.32</v>
       </c>
       <c r="O24" s="12">
         <f>$E$12</f>
-        <v>0</v>
+        <v>-0.99729999999999996</v>
       </c>
       <c r="P24" s="13">
         <f>$E$16</f>
-        <v>1</v>
+        <v>12.4498</v>
       </c>
       <c r="Q24" s="10">
         <f>$E$7</f>
-        <v>4</v>
+        <v>0.10562000000000001</v>
       </c>
       <c r="R24" s="11">
         <f>$E$14</f>
-        <v>2.0021</v>
+        <v>2.5114999999999998</v>
       </c>
       <c r="S24" s="12">
         <f>$E$6</f>
-        <v>39.520000000000003</v>
+        <v>219.45</v>
       </c>
       <c r="T24" s="14">
         <f>$E$9</f>
-        <v>0.92500000000000004</v>
+        <v>2.15</v>
       </c>
       <c r="U24" s="14">
         <f>$E$8</f>
-        <v>7.4999999999999997E-2</v>
+        <v>0.15</v>
       </c>
       <c r="V24" s="10">
         <f>$E$13</f>
-        <v>4.0042</v>
+        <v>5.7708000000000004</v>
       </c>
       <c r="W24" s="12">
         <f>$E$4</f>
-        <v>87.192999999999998</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.4">
       <c r="G25" s="1" t="str">
         <f>$B$3</f>
-        <v>C</v>
+        <v>Ga</v>
       </c>
       <c r="H25" s="1" t="str">
         <f>$E$3</f>
-        <v>H</v>
+        <v>N</v>
       </c>
       <c r="I25" s="1" t="str">
         <f>$E$3</f>
-        <v>H</v>
+        <v>N</v>
       </c>
       <c r="J25" s="1">
         <v>3</v>
@@ -1953,47 +1960,47 @@
       </c>
       <c r="M25" s="12">
         <f>$B$10</f>
-        <v>38049</v>
+        <v>7.6298000000000005E-2</v>
       </c>
       <c r="N25" s="11">
         <f>$B$11</f>
-        <v>4.3483999999999998</v>
+        <v>19.795999999999999</v>
       </c>
       <c r="O25" s="12">
         <f>$B$12</f>
-        <v>-0.57057999999999998</v>
+        <v>7.1459000000000001</v>
       </c>
       <c r="P25" s="13">
         <f>$B$16</f>
-        <v>0.72750999999999999</v>
-      </c>
-      <c r="Q25" s="7">
+        <v>3.4729000000000001</v>
+      </c>
+      <c r="Q25" s="7" t="str">
         <f>$B$7</f>
-        <v>1.5724E-7</v>
+        <v>2.3586e−1</v>
       </c>
       <c r="R25" s="11">
         <f>($R$9+$R$24)/2</f>
-        <v>2.1070000000000002</v>
+        <v>2.1134499999999998</v>
       </c>
       <c r="S25" s="12">
         <f>E21*SQRT($S$9*$S$24)</f>
-        <v>117.06051768209468</v>
+        <v>158.71290968286104</v>
       </c>
       <c r="T25" s="14">
         <f>$E$29</f>
-        <v>1.3430346811521212</v>
+        <v>2.4966085102762929</v>
       </c>
       <c r="U25" s="14">
         <f>$E$30</f>
-        <v>0.10610299346682284</v>
+        <v>0.13017659703644657</v>
       </c>
       <c r="V25" s="10">
         <f>($V$9+$V$24)/2</f>
-        <v>3.7460499999999999</v>
+        <v>4.5270999999999999</v>
       </c>
       <c r="W25" s="12">
         <f>$E$20*SQRT($W$9*$W$24)</f>
-        <v>348.585950376661</v>
+        <v>5589.0983172601282</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.4">
@@ -2002,15 +2009,15 @@
       </c>
       <c r="G26" s="1" t="str">
         <f>$E$3</f>
-        <v>H</v>
+        <v>N</v>
       </c>
       <c r="H26" s="1" t="str">
         <f>$B$3</f>
-        <v>C</v>
+        <v>Ga</v>
       </c>
       <c r="I26" s="1" t="str">
         <f>$B$3</f>
-        <v>C</v>
+        <v>Ga</v>
       </c>
       <c r="J26" s="1">
         <v>3</v>
@@ -2024,47 +2031,47 @@
       </c>
       <c r="M26" s="11">
         <f>$E$10</f>
-        <v>0</v>
+        <v>79934</v>
       </c>
       <c r="N26" s="11">
         <f>$E$11</f>
-        <v>1</v>
+        <v>134.32</v>
       </c>
       <c r="O26" s="12">
         <f>$E$12</f>
-        <v>0</v>
+        <v>-0.99729999999999996</v>
       </c>
       <c r="P26" s="13">
         <f>$E$16</f>
-        <v>1</v>
+        <v>12.4498</v>
       </c>
       <c r="Q26" s="10">
         <f>$E$7</f>
-        <v>4</v>
+        <v>0.10562000000000001</v>
       </c>
       <c r="R26" s="11">
         <f>($R$9+$R$24)/2</f>
-        <v>2.1070000000000002</v>
+        <v>2.1134499999999998</v>
       </c>
       <c r="S26" s="12">
         <f>E21*SQRT($S$9*$S$24)</f>
-        <v>117.06051768209468</v>
+        <v>158.71290968286104</v>
       </c>
       <c r="T26" s="14">
         <f>$E$29</f>
-        <v>1.3430346811521212</v>
+        <v>2.4966085102762929</v>
       </c>
       <c r="U26" s="14">
         <f>$E$30</f>
-        <v>0.10610299346682284</v>
+        <v>0.13017659703644657</v>
       </c>
       <c r="V26" s="10">
         <f>($V$9+$V$24)/2</f>
-        <v>3.7460499999999999</v>
+        <v>4.5270999999999999</v>
       </c>
       <c r="W26" s="12">
         <f>$E$20*SQRT($W$9*$W$24)</f>
-        <v>348.585950376661</v>
+        <v>5589.0983172601282</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.4">
@@ -2073,7 +2080,7 @@
       </c>
       <c r="E27" s="13">
         <f>SQRT($B$23*$E$23)</f>
-        <v>1.2369316876852983</v>
+        <v>2.3664319132398464</v>
       </c>
       <c r="S27" s="22"/>
       <c r="W27" s="22"/>
@@ -2084,7 +2091,7 @@
       </c>
       <c r="E28" s="13">
         <f>SQRT(B24*E24)</f>
-        <v>1.4491376746189439</v>
+        <v>2.6267851073127395</v>
       </c>
       <c r="G28" s="9" t="s">
         <v>75</v>
@@ -2110,7 +2117,7 @@
       </c>
       <c r="E29" s="13">
         <f>(E27+E28)/2</f>
-        <v>1.3430346811521212</v>
+        <v>2.4966085102762929</v>
       </c>
       <c r="G29" s="16" t="s">
         <v>50</v>
@@ -2170,22 +2177,22 @@
       </c>
       <c r="E30" s="13">
         <f>(E28-E27)/2</f>
-        <v>0.10610299346682284</v>
+        <v>0.13017659703644657</v>
       </c>
       <c r="G30" s="1" t="str">
         <f>$E$3</f>
-        <v>H</v>
+        <v>N</v>
       </c>
       <c r="H30" s="1" t="str">
         <f>$E$3</f>
-        <v>H</v>
+        <v>N</v>
       </c>
       <c r="I30" s="1" t="str">
         <f>$E$3</f>
-        <v>H</v>
+        <v>N</v>
       </c>
       <c r="J30" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K30" s="10">
         <v>1</v>
@@ -2196,64 +2203,64 @@
       </c>
       <c r="M30" s="11">
         <f>$E$10</f>
-        <v>0</v>
+        <v>79934</v>
       </c>
       <c r="N30" s="11">
         <f>$E$11</f>
-        <v>1</v>
+        <v>134.32</v>
       </c>
       <c r="O30" s="12">
         <f>$E$12</f>
-        <v>0</v>
+        <v>-0.99729999999999996</v>
       </c>
       <c r="P30" s="13">
         <f>$E$16</f>
-        <v>1</v>
+        <v>12.4498</v>
       </c>
       <c r="Q30" s="10">
         <f>$E$7</f>
-        <v>4</v>
+        <v>0.10562000000000001</v>
       </c>
       <c r="R30" s="11">
         <f>$E$14</f>
-        <v>2.0021</v>
+        <v>2.5114999999999998</v>
       </c>
       <c r="S30" s="12">
         <f>$E$6</f>
-        <v>39.520000000000003</v>
+        <v>219.45</v>
       </c>
       <c r="T30" s="14">
         <f>$E$9</f>
-        <v>0.92500000000000004</v>
+        <v>2.15</v>
       </c>
       <c r="U30" s="14">
         <f>$E$8</f>
-        <v>7.4999999999999997E-2</v>
+        <v>0.15</v>
       </c>
       <c r="V30" s="10">
         <f>$E$13</f>
-        <v>4.0042</v>
+        <v>5.7708000000000004</v>
       </c>
       <c r="W30" s="12">
         <f>$E$4</f>
-        <v>87.192999999999998</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.4">
       <c r="G31" s="1" t="str">
         <f>$B$3</f>
-        <v>C</v>
+        <v>Ga</v>
       </c>
       <c r="H31" s="1" t="str">
         <f>$E$3</f>
-        <v>H</v>
+        <v>N</v>
       </c>
       <c r="I31" s="1" t="str">
         <f>$E$3</f>
-        <v>H</v>
+        <v>N</v>
       </c>
       <c r="J31" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K31" s="10">
         <v>1</v>
@@ -2264,64 +2271,64 @@
       </c>
       <c r="M31" s="12">
         <f>$B$10</f>
-        <v>38049</v>
+        <v>7.6298000000000005E-2</v>
       </c>
       <c r="N31" s="11">
         <f>$B$11</f>
-        <v>4.3483999999999998</v>
+        <v>19.795999999999999</v>
       </c>
       <c r="O31" s="12">
         <f>$B$12</f>
-        <v>-0.57057999999999998</v>
+        <v>7.1459000000000001</v>
       </c>
       <c r="P31" s="13">
         <f>$B$16</f>
-        <v>0.72750999999999999</v>
-      </c>
-      <c r="Q31" s="10">
+        <v>3.4729000000000001</v>
+      </c>
+      <c r="Q31" s="10" t="str">
         <f>$B$7</f>
-        <v>1.5724E-7</v>
+        <v>2.3586e−1</v>
       </c>
       <c r="R31" s="11">
         <f>($R$13+$R$30)/2</f>
-        <v>2.1070000000000002</v>
+        <v>2.1134499999999998</v>
       </c>
       <c r="S31" s="12">
         <f>E21*SQRT($S$13*$S$30)</f>
-        <v>117.06051768209468</v>
+        <v>158.71290968286104</v>
       </c>
       <c r="T31" s="14">
         <f>$E$29</f>
-        <v>1.3430346811521212</v>
+        <v>2.4966085102762929</v>
       </c>
       <c r="U31" s="14">
         <f>$E$30</f>
-        <v>0.10610299346682284</v>
+        <v>0.13017659703644657</v>
       </c>
       <c r="V31" s="10">
         <f>($V$13+$V$30)/2</f>
-        <v>3.7460499999999999</v>
+        <v>4.5270999999999999</v>
       </c>
       <c r="W31" s="12">
         <f>$E$20*SQRT($W$13*$W$30)</f>
-        <v>348.585950376661</v>
+        <v>5589.0983172601282</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.4">
       <c r="G32" s="1" t="str">
         <f>$E$3</f>
-        <v>H</v>
+        <v>N</v>
       </c>
       <c r="H32" s="1" t="str">
         <f>$B$3</f>
-        <v>C</v>
+        <v>Ga</v>
       </c>
       <c r="I32" s="1" t="str">
         <f>$B$3</f>
-        <v>C</v>
+        <v>Ga</v>
       </c>
       <c r="J32" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K32" s="10">
         <v>1</v>
@@ -2332,47 +2339,47 @@
       </c>
       <c r="M32" s="11">
         <f>$E$10</f>
-        <v>0</v>
+        <v>79934</v>
       </c>
       <c r="N32" s="11">
         <f>$E$11</f>
-        <v>1</v>
+        <v>134.32</v>
       </c>
       <c r="O32" s="12">
         <f>$E$12</f>
-        <v>0</v>
+        <v>-0.99729999999999996</v>
       </c>
       <c r="P32" s="13">
         <f>$E$16</f>
-        <v>1</v>
+        <v>12.4498</v>
       </c>
       <c r="Q32" s="10">
         <f>$E$7</f>
-        <v>4</v>
+        <v>0.10562000000000001</v>
       </c>
       <c r="R32" s="11">
         <f>($R$13+$R$30)/2</f>
-        <v>2.1070000000000002</v>
+        <v>2.1134499999999998</v>
       </c>
       <c r="S32" s="12">
         <f>E21*SQRT($S$13*$S$30)</f>
-        <v>117.06051768209468</v>
+        <v>158.71290968286104</v>
       </c>
       <c r="T32" s="14">
         <f>$E$29</f>
-        <v>1.3430346811521212</v>
+        <v>2.4966085102762929</v>
       </c>
       <c r="U32" s="14">
         <f>$E$30</f>
-        <v>0.10610299346682284</v>
+        <v>0.13017659703644657</v>
       </c>
       <c r="V32" s="10">
         <f>($V$13+$V$30)/2</f>
-        <v>3.7460499999999999</v>
+        <v>4.5270999999999999</v>
       </c>
       <c r="W32" s="12">
         <f>$E$20*SQRT($W$13*$W$30)</f>
-        <v>348.585950376661</v>
+        <v>5589.0983172601282</v>
       </c>
     </row>
     <row r="34" spans="7:23" x14ac:dyDescent="0.4">
@@ -2383,15 +2390,15 @@
     <row r="35" spans="7:23" x14ac:dyDescent="0.4">
       <c r="G35" s="9" t="str">
         <f>$B$3</f>
-        <v>C</v>
+        <v>Ga</v>
       </c>
       <c r="H35" t="str">
         <f>$E$3</f>
-        <v>H</v>
+        <v>N</v>
       </c>
       <c r="I35" t="str">
         <f>$B$3</f>
-        <v>C</v>
+        <v>Ga</v>
       </c>
       <c r="J35">
         <v>1</v>
@@ -2425,11 +2432,11 @@
       </c>
       <c r="T35" s="21">
         <f>$E$29</f>
-        <v>1.3430346811521212</v>
+        <v>2.4966085102762929</v>
       </c>
       <c r="U35" s="21">
         <f>$E$30</f>
-        <v>0.10610299346682284</v>
+        <v>0.13017659703644657</v>
       </c>
       <c r="V35" s="20">
         <v>0</v>
@@ -2441,15 +2448,15 @@
     <row r="36" spans="7:23" x14ac:dyDescent="0.4">
       <c r="G36" s="9" t="str">
         <f>$B$3</f>
-        <v>C</v>
+        <v>Ga</v>
       </c>
       <c r="H36" t="str">
         <f>$B$3</f>
-        <v>C</v>
+        <v>Ga</v>
       </c>
       <c r="I36" t="str">
         <f>$E$3</f>
-        <v>H</v>
+        <v>N</v>
       </c>
       <c r="J36">
         <v>1</v>
@@ -2483,11 +2490,11 @@
       </c>
       <c r="T36" s="21">
         <f>$E$29</f>
-        <v>1.3430346811521212</v>
+        <v>2.4966085102762929</v>
       </c>
       <c r="U36" s="21">
         <f>$E$30</f>
-        <v>0.10610299346682284</v>
+        <v>0.13017659703644657</v>
       </c>
       <c r="V36" s="20">
         <v>0</v>
@@ -2499,15 +2506,15 @@
     <row r="37" spans="7:23" x14ac:dyDescent="0.4">
       <c r="G37" s="9" t="str">
         <f>$E$3</f>
-        <v>H</v>
+        <v>N</v>
       </c>
       <c r="H37" t="str">
         <f>$B$3</f>
-        <v>C</v>
+        <v>Ga</v>
       </c>
       <c r="I37" t="str">
         <f>$E$3</f>
-        <v>H</v>
+        <v>N</v>
       </c>
       <c r="J37">
         <v>1</v>
@@ -2541,11 +2548,11 @@
       </c>
       <c r="T37" s="21">
         <f>$E$29</f>
-        <v>1.3430346811521212</v>
+        <v>2.4966085102762929</v>
       </c>
       <c r="U37" s="21">
         <f>$E$30</f>
-        <v>0.10610299346682284</v>
+        <v>0.13017659703644657</v>
       </c>
       <c r="V37" s="20">
         <v>0</v>
@@ -2557,15 +2564,15 @@
     <row r="38" spans="7:23" x14ac:dyDescent="0.4">
       <c r="G38" s="9" t="str">
         <f>$E$3</f>
-        <v>H</v>
+        <v>N</v>
       </c>
       <c r="H38" t="str">
         <f>$E$3</f>
-        <v>H</v>
+        <v>N</v>
       </c>
       <c r="I38" t="str">
         <f>$B$3</f>
-        <v>C</v>
+        <v>Ga</v>
       </c>
       <c r="J38">
         <v>1</v>
@@ -2599,11 +2606,11 @@
       </c>
       <c r="T38" s="21">
         <f>$E$29</f>
-        <v>1.3430346811521212</v>
+        <v>2.4966085102762929</v>
       </c>
       <c r="U38" s="21">
         <f>$E$30</f>
-        <v>0.10610299346682284</v>
+        <v>0.13017659703644657</v>
       </c>
       <c r="V38" s="20">
         <v>0</v>
